--- a/Generic_Macro/SavedData/WALCL.xlsx
+++ b/Generic_Macro/SavedData/WALCL.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1074"/>
+  <dimension ref="A1:B1075"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9036,6 +9036,14 @@
       </c>
       <c r="B1074" t="n">
         <v>8298312</v>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" s="3" t="n">
+        <v>45119</v>
+      </c>
+      <c r="B1075" t="n">
+        <v>8296923</v>
       </c>
     </row>
   </sheetData>
@@ -9137,7 +9145,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2023-07-05</t>
+          <t>2023-07-12</t>
         </is>
       </c>
     </row>
@@ -9221,7 +9229,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2023-07-06 15:33:42-05</t>
+          <t>2023-07-13 15:33:35-05</t>
         </is>
       </c>
     </row>
